--- a/upload/Report_10_2022.xlsx
+++ b/upload/Report_10_2022.xlsx
@@ -15,15 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
-  <si>
-    <t>Nama Permohonan</t>
-  </si>
-  <si>
-    <t>Nomor Permohonan</t>
-  </si>
-  <si>
-    <t>Tanggal Permohonan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+  <si>
+    <t>PERMOHONAN APPROVED</t>
+  </si>
+  <si>
+    <t>DETAIL PERMOHONAN APPROVED</t>
+  </si>
+  <si>
+    <t>PERMOHONAN REJECTED</t>
+  </si>
+  <si>
+    <t>PERMOHONAN DETAIL REJECTED</t>
+  </si>
+  <si>
+    <t>Nama Pemohonan</t>
+  </si>
+  <si>
+    <t>Nomor Pemohonan</t>
+  </si>
+  <si>
+    <t>Tanggal Pemohonan</t>
   </si>
   <si>
     <t>Tahun</t>
@@ -32,25 +44,88 @@
     <t>Nominal</t>
   </si>
   <si>
+    <t>Isi Pemohonan</t>
+  </si>
+  <si>
+    <t>No Pemohon</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Alasan Rejected</t>
+  </si>
+  <si>
     <t>alfandi</t>
   </si>
   <si>
-    <t>2022-10-22 20:06:17</t>
-  </si>
-  <si>
-    <t>Rp.10.000</t>
-  </si>
-  <si>
-    <t>2022-10-23 15:00:34</t>
-  </si>
-  <si>
-    <t>Rp.231.123</t>
+    <t>2022-10-26 20:53:43</t>
+  </si>
+  <si>
+    <t>Rp.1.231.231</t>
+  </si>
+  <si>
+    <t>awdadaw</t>
+  </si>
+  <si>
+    <t>Ivo Fauziah</t>
+  </si>
+  <si>
+    <t>2022-10-26 15:23:38</t>
+  </si>
+  <si>
+    <t>Rp.12.313</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>2022-10-26 22:56:11</t>
+  </si>
+  <si>
+    <t>Rp.214.357</t>
+  </si>
+  <si>
+    <t>adwa</t>
+  </si>
+  <si>
+    <t>Rp.213.123</t>
+  </si>
+  <si>
+    <t>awdwadwad</t>
+  </si>
+  <si>
+    <t>2022-10-26 22:40:14</t>
+  </si>
+  <si>
+    <t>Rp.213.213.123</t>
   </si>
   <si>
     <t>Total Nominal</t>
   </si>
   <si>
-    <t>Rp.241.123</t>
+    <t>Rp.1.445.588</t>
+  </si>
+  <si>
+    <t>awdawda</t>
+  </si>
+  <si>
+    <t>2022-10-30 16:59:51</t>
+  </si>
+  <si>
+    <t>Rp.1.234</t>
+  </si>
+  <si>
+    <t>awdadawdaw</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:05:46</t>
+  </si>
+  <si>
+    <t>Rp.123.123</t>
+  </si>
+  <si>
+    <t>Rp.213.348.559</t>
   </si>
 </sst>
 </file>
@@ -389,7 +464,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -397,63 +472,253 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="20" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>2022</v>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
         <v>7</v>
       </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>2022</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3">
+        <v>2022</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3">
+        <v>2022</v>
+      </c>
+      <c r="U3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="D4" t="s">
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
         <v>10</v>
       </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>2022</v>
+      </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4">
+        <v>2022</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4">
+        <v>2022</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5">
+        <v>2022</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5">
+        <v>2022</v>
+      </c>
+      <c r="U5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
